--- a/team_specific_matrix/West Virginia_B.xlsx
+++ b/team_specific_matrix/West Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1916167664670659</v>
+        <v>0.1963470319634703</v>
       </c>
       <c r="C2">
-        <v>0.562874251497006</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02395209580838323</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1616766467065868</v>
+        <v>0.1689497716894977</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05988023952095808</v>
+        <v>0.0684931506849315</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009708737864077669</v>
+        <v>0.0078125</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03883495145631068</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8058252427184466</v>
+        <v>0.796875</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.145631067961165</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.125</v>
+        <v>0.2068965517241379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05442176870748299</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0272108843537415</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04761904761904762</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.108843537414966</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="R6">
-        <v>0.08843537414965986</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="S6">
-        <v>0.3877551020408163</v>
+        <v>0.3897435897435897</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007352941176470588</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="E7">
-        <v>0.007352941176470588</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1691176470588235</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02205882352941177</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2132352941176471</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R7">
-        <v>0.09558823529411764</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S7">
-        <v>0.3382352941176471</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09027777777777778</v>
+        <v>0.09217877094972067</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388888888888889</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04861111111111111</v>
+        <v>0.05307262569832402</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1597222222222222</v>
+        <v>0.1508379888268156</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01736111111111111</v>
+        <v>0.01955307262569832</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1701388888888889</v>
+        <v>0.1564245810055866</v>
       </c>
       <c r="R8">
-        <v>0.09375</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="S8">
-        <v>0.40625</v>
+        <v>0.4106145251396648</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0873015873015873</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01587301587301587</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03174603174603174</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.126984126984127</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02380952380952381</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2063492063492063</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="R9">
-        <v>0.0873015873015873</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="S9">
-        <v>0.4206349206349206</v>
+        <v>0.4161490683229814</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08013172338090011</v>
+        <v>0.08399646330680813</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01866081229418222</v>
+        <v>0.01768346595932803</v>
       </c>
       <c r="E10">
-        <v>0.001097694840834248</v>
+        <v>0.0008841732979664014</v>
       </c>
       <c r="F10">
-        <v>0.07574094401756312</v>
+        <v>0.07869142351900972</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1229418221734358</v>
+        <v>0.1202475685234306</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01975850713501646</v>
+        <v>0.02210433244916004</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2392974753018661</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="R10">
-        <v>0.1009879253567508</v>
+        <v>0.1043324491600354</v>
       </c>
       <c r="S10">
-        <v>0.3413830954994512</v>
+        <v>0.3421750663129973</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1674008810572687</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08370044052863436</v>
+        <v>0.09863945578231292</v>
       </c>
       <c r="K11">
-        <v>0.1938325991189427</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="L11">
-        <v>0.5506607929515418</v>
+        <v>0.5680272108843537</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004405286343612335</v>
+        <v>0.006802721088435374</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7164179104477612</v>
+        <v>0.7247191011235955</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1865671641791045</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="K12">
-        <v>0.01492537313432836</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L12">
-        <v>0.06716417910447761</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01492537313432836</v>
+        <v>0.02247191011235955</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5294117647058824</v>
+        <v>0.48</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0124223602484472</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1304347826086956</v>
+        <v>0.1244239631336406</v>
       </c>
       <c r="I15">
-        <v>0.04347826086956522</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="J15">
-        <v>0.3540372670807453</v>
+        <v>0.3640552995391705</v>
       </c>
       <c r="K15">
-        <v>0.06211180124223602</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006211180124223602</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06211180124223602</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3291925465838509</v>
+        <v>0.2949308755760369</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0423728813559322</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1694915254237288</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="I16">
-        <v>0.1101694915254237</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="J16">
-        <v>0.3983050847457627</v>
+        <v>0.3931034482758621</v>
       </c>
       <c r="K16">
-        <v>0.09322033898305085</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02542372881355932</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05084745762711865</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1101694915254237</v>
+        <v>0.1172413793103448</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01474926253687316</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1976401179941003</v>
+        <v>0.1901234567901235</v>
       </c>
       <c r="I17">
-        <v>0.08554572271386431</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="J17">
-        <v>0.4218289085545723</v>
+        <v>0.4271604938271605</v>
       </c>
       <c r="K17">
-        <v>0.1032448377581121</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005899705014749262</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="N17">
-        <v>0.002949852507374631</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="O17">
-        <v>0.07079646017699115</v>
+        <v>0.0691358024691358</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09734513274336283</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01290322580645161</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1935483870967742</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I18">
-        <v>0.08387096774193549</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4129032258064516</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="K18">
-        <v>0.1354838709677419</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01290322580645161</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07741935483870968</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07096774193548387</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02154626108998733</v>
+        <v>0.02171767028627838</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1825095057034221</v>
+        <v>0.1826258637709773</v>
       </c>
       <c r="I19">
-        <v>0.08111533586818757</v>
+        <v>0.08094768015794669</v>
       </c>
       <c r="J19">
-        <v>0.4093789607097592</v>
+        <v>0.3889437314906219</v>
       </c>
       <c r="K19">
-        <v>0.1254752851711027</v>
+        <v>0.1303060217176703</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01267427122940431</v>
+        <v>0.01579466929911155</v>
       </c>
       <c r="N19">
-        <v>0.001267427122940431</v>
+        <v>0.001974333662388944</v>
       </c>
       <c r="O19">
-        <v>0.07097591888466413</v>
+        <v>0.07798617966436328</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09505703422053231</v>
+        <v>0.09970384995064166</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/West Virginia_B.xlsx
+++ b/team_specific_matrix/West Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1963470319634703</v>
+        <v>0.1832669322709163</v>
       </c>
       <c r="C2">
-        <v>0.5342465753424658</v>
+        <v>0.5537848605577689</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0319634703196347</v>
+        <v>0.03187250996015936</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1689497716894977</v>
+        <v>0.1553784860557769</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0684931506849315</v>
+        <v>0.07569721115537849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.0078125</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.796875</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.15625</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7586206896551724</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2068965517241379</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06153846153846154</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04615384615384616</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2564102564102564</v>
+        <v>0.2488888888888889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04102564102564103</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1128205128205128</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R6">
-        <v>0.09230769230769231</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S6">
-        <v>0.3897435897435897</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08620689655172414</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005747126436781609</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E7">
-        <v>0.005747126436781609</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.06321839080459771</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1781609195402299</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02298850574712644</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2068965517241379</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R7">
-        <v>0.08620689655172414</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="S7">
-        <v>0.3448275862068966</v>
+        <v>0.3385416666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09217877094972067</v>
+        <v>0.0906801007556675</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01675977653631285</v>
+        <v>0.02015113350125945</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05307262569832402</v>
+        <v>0.05289672544080604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1508379888268156</v>
+        <v>0.146095717884131</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01955307262569832</v>
+        <v>0.02267002518891688</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1564245810055866</v>
+        <v>0.1486146095717884</v>
       </c>
       <c r="R8">
-        <v>0.1005586592178771</v>
+        <v>0.1209068010075567</v>
       </c>
       <c r="S8">
-        <v>0.4106145251396648</v>
+        <v>0.3979848866498741</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08074534161490683</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0124223602484472</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03105590062111801</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304347826086956</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02484472049689441</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1925465838509317</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="R9">
-        <v>0.1118012422360248</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="S9">
-        <v>0.4161490683229814</v>
+        <v>0.4031413612565445</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08399646330680813</v>
+        <v>0.08814352574102964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01768346595932803</v>
+        <v>0.01638065522620905</v>
       </c>
       <c r="E10">
-        <v>0.0008841732979664014</v>
+        <v>0.0007800312012480499</v>
       </c>
       <c r="F10">
-        <v>0.07869142351900972</v>
+        <v>0.07800312012480499</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1202475685234306</v>
+        <v>0.1201248049921997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02210433244916004</v>
+        <v>0.02262090483619345</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2298850574712644</v>
+        <v>0.2285491419656786</v>
       </c>
       <c r="R10">
-        <v>0.1043324491600354</v>
+        <v>0.1029641185647426</v>
       </c>
       <c r="S10">
-        <v>0.3421750663129973</v>
+        <v>0.3424336973478939</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09863945578231292</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="K11">
-        <v>0.1836734693877551</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L11">
-        <v>0.5680272108843537</v>
+        <v>0.5648148148148148</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006802721088435374</v>
+        <v>0.006172839506172839</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7247191011235955</v>
+        <v>0.7157360406091371</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1797752808988764</v>
+        <v>0.182741116751269</v>
       </c>
       <c r="K12">
-        <v>0.01685393258426966</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="L12">
-        <v>0.05617977528089887</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02247191011235955</v>
+        <v>0.03045685279187817</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.48</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0184331797235023</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1244239631336406</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="I15">
-        <v>0.05069124423963134</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="J15">
-        <v>0.3640552995391705</v>
+        <v>0.3694779116465863</v>
       </c>
       <c r="K15">
-        <v>0.06912442396313365</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009216589861751152</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06912442396313365</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2949308755760369</v>
+        <v>0.2971887550200803</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03448275862068965</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1586206896551724</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="I16">
-        <v>0.1172413793103448</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="J16">
-        <v>0.3931034482758621</v>
+        <v>0.4171779141104294</v>
       </c>
       <c r="K16">
-        <v>0.1103448275862069</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02758620689655172</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04137931034482759</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1172413793103448</v>
+        <v>0.1165644171779141</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01481481481481482</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1901234567901235</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I17">
-        <v>0.08641975308641975</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="J17">
-        <v>0.4271604938271605</v>
+        <v>0.4155555555555556</v>
       </c>
       <c r="K17">
-        <v>0.09876543209876543</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007407407407407408</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N17">
-        <v>0.002469135802469136</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="O17">
-        <v>0.0691358024691358</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1037037037037037</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0196078431372549</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.196078431372549</v>
+        <v>0.1799163179916318</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="J18">
-        <v>0.3823529411764706</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="K18">
-        <v>0.1372549019607843</v>
+        <v>0.1297071129707113</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009803921568627451</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09313725490196079</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07843137254901961</v>
+        <v>0.07949790794979079</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02171767028627838</v>
+        <v>0.02012248468941382</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1826258637709773</v>
+        <v>0.1846019247594051</v>
       </c>
       <c r="I19">
-        <v>0.08094768015794669</v>
+        <v>0.08573928258967629</v>
       </c>
       <c r="J19">
-        <v>0.3889437314906219</v>
+        <v>0.3867016622922135</v>
       </c>
       <c r="K19">
-        <v>0.1303060217176703</v>
+        <v>0.1277340332458443</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01579466929911155</v>
+        <v>0.01662292213473316</v>
       </c>
       <c r="N19">
-        <v>0.001974333662388944</v>
+        <v>0.001749781277340333</v>
       </c>
       <c r="O19">
-        <v>0.07798617966436328</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09970384995064166</v>
+        <v>0.09798775153105861</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/West Virginia_B.xlsx
+++ b/team_specific_matrix/West Virginia_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1832669322709163</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="C2">
-        <v>0.5537848605577689</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03187250996015936</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1553784860557769</v>
+        <v>0.1418439716312057</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07569721115537849</v>
+        <v>0.08865248226950355</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006666666666666667</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C3">
-        <v>0.006666666666666667</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02666666666666667</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7866666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1733333333333333</v>
+        <v>0.1695906432748538</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05777777777777778</v>
+        <v>0.0625</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06222222222222222</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2488888888888889</v>
+        <v>0.2458333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05333333333333334</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1111111111111111</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="R6">
-        <v>0.08888888888888889</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="S6">
-        <v>0.3777777777777778</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08854166666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01041666666666667</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E7">
-        <v>0.005208333333333333</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F7">
-        <v>0.07291666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1614583333333333</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02604166666666667</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2083333333333333</v>
+        <v>0.2047619047619048</v>
       </c>
       <c r="R7">
-        <v>0.08854166666666667</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
-        <v>0.3385416666666667</v>
+        <v>0.3523809523809524</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0906801007556675</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02015113350125945</v>
+        <v>0.01839080459770115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05289672544080604</v>
+        <v>0.05057471264367816</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.146095717884131</v>
+        <v>0.1402298850574713</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02267002518891688</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1486146095717884</v>
+        <v>0.1471264367816092</v>
       </c>
       <c r="R8">
-        <v>0.1209068010075567</v>
+        <v>0.135632183908046</v>
       </c>
       <c r="S8">
-        <v>0.3979848866498741</v>
+        <v>0.3954022988505747</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09424083769633508</v>
+        <v>0.095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01047120418848168</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03664921465968586</v>
+        <v>0.035</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1413612565445026</v>
+        <v>0.145</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02094240837696335</v>
+        <v>0.02</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1727748691099476</v>
+        <v>0.175</v>
       </c>
       <c r="R9">
-        <v>0.1204188481675393</v>
+        <v>0.115</v>
       </c>
       <c r="S9">
-        <v>0.4031413612565445</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08814352574102964</v>
+        <v>0.09314079422382672</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01638065522620905</v>
+        <v>0.01516245487364621</v>
       </c>
       <c r="E10">
-        <v>0.0007800312012480499</v>
+        <v>0.0007220216606498195</v>
       </c>
       <c r="F10">
-        <v>0.07800312012480499</v>
+        <v>0.0779783393501805</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1201248049921997</v>
+        <v>0.1220216606498195</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02262090483619345</v>
+        <v>0.02382671480144404</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2285491419656786</v>
+        <v>0.2245487364620939</v>
       </c>
       <c r="R10">
-        <v>0.1029641185647426</v>
+        <v>0.1003610108303249</v>
       </c>
       <c r="S10">
-        <v>0.3424336973478939</v>
+        <v>0.3422382671480144</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1450617283950617</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09876543209876543</v>
+        <v>0.1107954545454545</v>
       </c>
       <c r="K11">
-        <v>0.1851851851851852</v>
+        <v>0.1903409090909091</v>
       </c>
       <c r="L11">
-        <v>0.5648148148148148</v>
+        <v>0.5511363636363636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006172839506172839</v>
+        <v>0.005681818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7157360406091371</v>
+        <v>0.719047619047619</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.182741116751269</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="K12">
-        <v>0.01522842639593909</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="L12">
-        <v>0.05583756345177665</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03045685279187817</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4827586206896552</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4137931034482759</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.103448275862069</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02008032128514056</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1124497991967871</v>
+        <v>0.1090225563909774</v>
       </c>
       <c r="I15">
-        <v>0.06024096385542169</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="J15">
-        <v>0.3694779116465863</v>
+        <v>0.3796992481203008</v>
       </c>
       <c r="K15">
-        <v>0.06425702811244979</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008032128514056224</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06827309236947791</v>
+        <v>0.06390977443609022</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2971887550200803</v>
+        <v>0.2932330827067669</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03680981595092025</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1533742331288344</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I16">
-        <v>0.1104294478527607</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="J16">
-        <v>0.4171779141104294</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="K16">
-        <v>0.1042944785276074</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0245398773006135</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03680981595092025</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1165644171779141</v>
+        <v>0.1123595505617977</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01333333333333333</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1888888888888889</v>
+        <v>0.1929460580912863</v>
       </c>
       <c r="I17">
-        <v>0.09777777777777778</v>
+        <v>0.0975103734439834</v>
       </c>
       <c r="J17">
-        <v>0.4155555555555556</v>
+        <v>0.4128630705394191</v>
       </c>
       <c r="K17">
-        <v>0.09555555555555556</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008888888888888889</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="N17">
-        <v>0.002222222222222222</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O17">
-        <v>0.07111111111111111</v>
+        <v>0.06846473029045644</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1066666666666667</v>
+        <v>0.1037344398340249</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02510460251046025</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1799163179916318</v>
+        <v>0.1877394636015326</v>
       </c>
       <c r="I18">
-        <v>0.07949790794979079</v>
+        <v>0.07662835249042145</v>
       </c>
       <c r="J18">
-        <v>0.4142259414225942</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.1297071129707113</v>
+        <v>0.1226053639846743</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008368200836820083</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08368200836820083</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07949790794979079</v>
+        <v>0.08045977011494253</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02012248468941382</v>
+        <v>0.02019386106623586</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1846019247594051</v>
+        <v>0.1873990306946688</v>
       </c>
       <c r="I19">
-        <v>0.08573928258967629</v>
+        <v>0.08239095315024232</v>
       </c>
       <c r="J19">
-        <v>0.3867016622922135</v>
+        <v>0.3796445880452343</v>
       </c>
       <c r="K19">
-        <v>0.1277340332458443</v>
+        <v>0.130048465266559</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01662292213473316</v>
+        <v>0.01857835218093699</v>
       </c>
       <c r="N19">
-        <v>0.001749781277340333</v>
+        <v>0.001615508885298869</v>
       </c>
       <c r="O19">
-        <v>0.07874015748031496</v>
+        <v>0.07835218093699516</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09798775153105861</v>
+        <v>0.1017770597738288</v>
       </c>
     </row>
   </sheetData>
